--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.25960193149509</v>
+        <v>1.445484</v>
       </c>
       <c r="H2">
-        <v>6.25960193149509</v>
+        <v>4.336452</v>
       </c>
       <c r="I2">
-        <v>0.6675653125642289</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="J2">
-        <v>0.6675653125642289</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44342760226662</v>
+        <v>1.57938</v>
       </c>
       <c r="N2">
-        <v>1.44342760226662</v>
+        <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7170705194480914</v>
+        <v>0.7235635290775982</v>
       </c>
       <c r="P2">
-        <v>0.7170705194480914</v>
+        <v>0.7235635290775982</v>
       </c>
       <c r="Q2">
-        <v>9.03528220712146</v>
+        <v>2.282968519919999</v>
       </c>
       <c r="R2">
-        <v>9.03528220712146</v>
+        <v>20.54671667928</v>
       </c>
       <c r="S2">
-        <v>0.4786914054459591</v>
+        <v>0.09310151240983511</v>
       </c>
       <c r="T2">
-        <v>0.4786914054459591</v>
+        <v>0.09310151240983511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.25960193149509</v>
+        <v>1.445484</v>
       </c>
       <c r="H3">
-        <v>6.25960193149509</v>
+        <v>4.336452</v>
       </c>
       <c r="I3">
-        <v>0.6675653125642289</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="J3">
-        <v>0.6675653125642289</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.569523095215107</v>
+        <v>0.6034</v>
       </c>
       <c r="N3">
-        <v>0.569523095215107</v>
+        <v>1.8102</v>
       </c>
       <c r="O3">
-        <v>0.2829294805519085</v>
+        <v>0.2764364709224018</v>
       </c>
       <c r="P3">
-        <v>0.2829294805519085</v>
+        <v>0.2764364709224018</v>
       </c>
       <c r="Q3">
-        <v>3.564987866839546</v>
+        <v>0.8722050455999999</v>
       </c>
       <c r="R3">
-        <v>3.564987866839546</v>
+        <v>7.8498454104</v>
       </c>
       <c r="S3">
-        <v>0.1888739071182697</v>
+        <v>0.03556930731558872</v>
       </c>
       <c r="T3">
-        <v>0.1888739071182697</v>
+        <v>0.03556930731558872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.11716138092287</v>
+        <v>6.292313</v>
       </c>
       <c r="H4">
-        <v>3.11716138092287</v>
+        <v>18.876939</v>
       </c>
       <c r="I4">
-        <v>0.332434687435771</v>
+        <v>0.5601148623429528</v>
       </c>
       <c r="J4">
-        <v>0.332434687435771</v>
+        <v>0.5601148623429528</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.44342760226662</v>
+        <v>1.57938</v>
       </c>
       <c r="N4">
-        <v>1.44342760226662</v>
+        <v>4.73814</v>
       </c>
       <c r="O4">
-        <v>0.7170705194480914</v>
+        <v>0.7235635290775982</v>
       </c>
       <c r="P4">
-        <v>0.7170705194480914</v>
+        <v>0.7235635290775982</v>
       </c>
       <c r="Q4">
-        <v>4.499396777943604</v>
+        <v>9.937953305939999</v>
       </c>
       <c r="R4">
-        <v>4.499396777943604</v>
+        <v>89.44157975345999</v>
       </c>
       <c r="S4">
-        <v>0.2383791140021322</v>
+        <v>0.4052786864856801</v>
       </c>
       <c r="T4">
-        <v>0.2383791140021322</v>
+        <v>0.4052786864856801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.292313</v>
+      </c>
+      <c r="H5">
+        <v>18.876939</v>
+      </c>
+      <c r="I5">
+        <v>0.5601148623429528</v>
+      </c>
+      <c r="J5">
+        <v>0.5601148623429528</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6034</v>
+      </c>
+      <c r="N5">
+        <v>1.8102</v>
+      </c>
+      <c r="O5">
+        <v>0.2764364709224018</v>
+      </c>
+      <c r="P5">
+        <v>0.2764364709224018</v>
+      </c>
+      <c r="Q5">
+        <v>3.796781664200001</v>
+      </c>
+      <c r="R5">
+        <v>34.1710349778</v>
+      </c>
+      <c r="S5">
+        <v>0.1548361758572727</v>
+      </c>
+      <c r="T5">
+        <v>0.1548361758572727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.11716138092287</v>
-      </c>
-      <c r="H5">
-        <v>3.11716138092287</v>
-      </c>
-      <c r="I5">
-        <v>0.332434687435771</v>
-      </c>
-      <c r="J5">
-        <v>0.332434687435771</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.569523095215107</v>
-      </c>
-      <c r="N5">
-        <v>0.569523095215107</v>
-      </c>
-      <c r="O5">
-        <v>0.2829294805519085</v>
-      </c>
-      <c r="P5">
-        <v>0.2829294805519085</v>
-      </c>
-      <c r="Q5">
-        <v>1.77529539794819</v>
-      </c>
-      <c r="R5">
-        <v>1.77529539794819</v>
-      </c>
-      <c r="S5">
-        <v>0.09405557343363877</v>
-      </c>
-      <c r="T5">
-        <v>0.09405557343363877</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.496172</v>
+      </c>
+      <c r="H6">
+        <v>10.488516</v>
+      </c>
+      <c r="I6">
+        <v>0.3112143179316233</v>
+      </c>
+      <c r="J6">
+        <v>0.3112143179316232</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.57938</v>
+      </c>
+      <c r="N6">
+        <v>4.73814</v>
+      </c>
+      <c r="O6">
+        <v>0.7235635290775982</v>
+      </c>
+      <c r="P6">
+        <v>0.7235635290775982</v>
+      </c>
+      <c r="Q6">
+        <v>5.52178413336</v>
+      </c>
+      <c r="R6">
+        <v>49.69605720024</v>
+      </c>
+      <c r="S6">
+        <v>0.225183330182083</v>
+      </c>
+      <c r="T6">
+        <v>0.225183330182083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.496172</v>
+      </c>
+      <c r="H7">
+        <v>10.488516</v>
+      </c>
+      <c r="I7">
+        <v>0.3112143179316233</v>
+      </c>
+      <c r="J7">
+        <v>0.3112143179316232</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6034</v>
+      </c>
+      <c r="N7">
+        <v>1.8102</v>
+      </c>
+      <c r="O7">
+        <v>0.2764364709224018</v>
+      </c>
+      <c r="P7">
+        <v>0.2764364709224018</v>
+      </c>
+      <c r="Q7">
+        <v>2.1095901848</v>
+      </c>
+      <c r="R7">
+        <v>18.9863116632</v>
+      </c>
+      <c r="S7">
+        <v>0.08603098774954028</v>
+      </c>
+      <c r="T7">
+        <v>0.08603098774954027</v>
       </c>
     </row>
   </sheetData>
